--- a/doc/物联网平台+应用平台- 整体架构分析.xlsx
+++ b/doc/物联网平台+应用平台- 整体架构分析.xlsx
@@ -5,19 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\zzzzzzzzzz\智慧路灯项目\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zhuhuazhen\智慧路灯项目\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="系统集成" sheetId="9" r:id="rId1"/>
     <sheet name="数据集成分析" sheetId="4" r:id="rId2"/>
-    <sheet name="服务架构-方案1" sheetId="5" r:id="rId3"/>
-    <sheet name="服务架构-方案2" sheetId="6" r:id="rId4"/>
-    <sheet name="服务架构-方案3" sheetId="10" r:id="rId5"/>
-    <sheet name="方案4" sheetId="11" r:id="rId6"/>
+    <sheet name="总体服务架构" sheetId="11" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>数据源</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -194,143 +191,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>这里给了两个方案，可以把让大家参与评审 以推动物联网平台和应用平台的服务及功能的划分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1，两个平台完全独立解耦，实例可单独部署</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2，虽然可以单独部署，但页面的功能的逻辑以及实现，基本上都划分到了应用平台，物联网平台主要做站点接入适配、数据封装成平台规范的结构并提供页面管理功能、规则引擎，接入站点涉及的设备的管理及建模等</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3，策略、控制指令等不在这里定义，物联网平台登录后不能做很多事情，如打开某个摄像头查看，设备关联操作，等等，</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺点是要使用完整的功能需要两套都需要部署</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>优点是可以灵活的重构和扩展应用平台，可以基于新的项目做新的应用平台</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>物联网平台和应用平台的服务边界</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>评审点：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>和方案1比，物联网平台是一个完整的平台，页面上的功能像一些应用独有的能力，如统计、多维度展示告警，日志趋势，基于地图展示等他可能不支持外，他基本都能使用，说白了就是目前demo里大部分页面功能，物联网平台都需要提供现有DEMO中各个设备下的功能的所有业务层（业务层是指业务逻辑）rest API接口  ,那这样的话物联网平台和应用平台的功能边界和服务需要确定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果要存储控制指令，策略等数据就需要有各设备对应的业务层服务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1，应用平台，是否必要有各设备模块对应的业务层服务，或者确切的说物联网平台有了的话，应用平台直接</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>’通过网关API，查询业务层服务‘’</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的线路来调用服务即可？</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2，接入数据取消了KAFKA异步，如果不接入日志数据这种数据量比较大的数据是可以不用做异步的，增加复杂度而已</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果确定使用MQTT SERVER作为应用平台 消息组件，分析下是否可以根据消防组重复消费（找万维易确定下），是则去掉'实时推送上报(http)'这条线 直接统一走mqtt server做数据集成（上行/下行）也可以</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>两个平台落地的数据边界确认,及还有什么主要数据要存</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4，
-1,控制指令数据
-2，控制策略数据 ，是否需要应用存下来，如果存，貌似不能JS直接前端和mqttserver通信，所以设计了个下发调度，并通过KAFKA异步，这里要讨论下
-（个人觉得</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>用了MQTT服务器在应用端，显得有点lower,数据跨过了应用平台通过组件直接透传到了物联网平台了，扩展性差）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">应用平台集成，选择mqtt server </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不考虑业务层服务边界的问题的话（需确定），此数据流程基本是OK的，比较优的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>系统上下文图</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5，系统日志</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作日志数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统日志</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂时写文件即可</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂时写文件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,  操作日志数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>增删改查、操作控制、下载</t>
+    <t>1，物联网平台和应用平台通过HTTP REST交互，方便以后做统一访问认证</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2，应用前台访问后台统一通过HTTP REST交互</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3，应用前台页面实时刷新可以订阅MQTT 服务实现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上次讨论安全访问时候，以下达成了共识</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -427,7 +304,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -460,15 +337,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1687,21 +1555,21 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>1</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>18</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
-          <xdr:row>37</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="3075" name="Object 3" hidden="1">
+            <xdr:cNvPr id="6145" name="Object 1" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3075"/>
+                  <a14:compatExt spid="_x0000_s6145"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1722,124 +1590,23 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
             </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>609600</xdr:colOff>
-          <xdr:row>40</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4098" name="Object 2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4098"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>609600</xdr:colOff>
-          <xdr:row>41</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="5122" name="Object 2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s5122"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2123,7 +1890,7 @@
   <sheetData>
     <row r="2" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2137,8 +1904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2346,395 +2113,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:Z34"/>
+  <dimension ref="U7:U10"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>41</v>
+    <row r="7" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U7" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="V6" t="s">
+    <row r="8" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="V7" s="12" t="s">
+    <row r="9" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U9" t="s">
         <v>43</v>
       </c>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-    </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-    </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-    </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-    </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-    </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="V14" s="12" t="s">
+    <row r="10" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U10" t="s">
         <v>44</v>
-      </c>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-    </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-    </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-    </row>
-    <row r="18" spans="22:26" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="V18" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-    </row>
-    <row r="20" spans="22:26" x14ac:dyDescent="0.2">
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
-    </row>
-    <row r="21" spans="22:26" x14ac:dyDescent="0.2">
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="12"/>
-    </row>
-    <row r="22" spans="22:26" x14ac:dyDescent="0.2">
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-    </row>
-    <row r="23" spans="22:26" x14ac:dyDescent="0.2">
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
-    </row>
-    <row r="24" spans="22:26" x14ac:dyDescent="0.2">
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="11"/>
-    </row>
-    <row r="25" spans="22:26" x14ac:dyDescent="0.2">
-      <c r="V25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="22:26" x14ac:dyDescent="0.2">
-      <c r="V26" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="W26" s="12"/>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="12"/>
-      <c r="Z26" s="12"/>
-    </row>
-    <row r="27" spans="22:26" x14ac:dyDescent="0.2">
-      <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="12"/>
-      <c r="Y27" s="12"/>
-      <c r="Z27" s="12"/>
-    </row>
-    <row r="28" spans="22:26" x14ac:dyDescent="0.2">
-      <c r="V28" s="12"/>
-      <c r="W28" s="12"/>
-      <c r="X28" s="12"/>
-      <c r="Y28" s="12"/>
-      <c r="Z28" s="12"/>
-    </row>
-    <row r="32" spans="22:26" x14ac:dyDescent="0.2">
-      <c r="V32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="22:22" x14ac:dyDescent="0.2">
-      <c r="V33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="22:22" x14ac:dyDescent="0.2">
-      <c r="V34" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="V7:Z12"/>
-    <mergeCell ref="V14:Z16"/>
-    <mergeCell ref="V26:Z28"/>
-    <mergeCell ref="V18:Z18"/>
-    <mergeCell ref="V20:Z23"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.15" shapeId="3075" r:id="rId4">
-          <objectPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>37</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Visio.Drawing.15" shapeId="3075" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </oleObjects>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="U6:Z30"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23:Z25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="6" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U6" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-    </row>
-    <row r="7" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-    </row>
-    <row r="8" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-    </row>
-    <row r="9" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-    </row>
-    <row r="10" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-    </row>
-    <row r="11" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-    </row>
-    <row r="12" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-    </row>
-    <row r="16" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U16" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-    </row>
-    <row r="17" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-    </row>
-    <row r="18" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-    </row>
-    <row r="19" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
-    </row>
-    <row r="20" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="V20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U23" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
-    </row>
-    <row r="24" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="12"/>
-      <c r="Z24" s="12"/>
-    </row>
-    <row r="25" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="12"/>
-    </row>
-    <row r="27" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U27" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="12"/>
-      <c r="Y27" s="12"/>
-      <c r="Z27" s="12"/>
-    </row>
-    <row r="28" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U28" s="12"/>
-      <c r="V28" s="12"/>
-      <c r="W28" s="12"/>
-      <c r="X28" s="12"/>
-      <c r="Y28" s="12"/>
-      <c r="Z28" s="12"/>
-    </row>
-    <row r="29" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U29" s="12"/>
-      <c r="V29" s="12"/>
-      <c r="W29" s="12"/>
-      <c r="X29" s="12"/>
-      <c r="Y29" s="12"/>
-      <c r="Z29" s="12"/>
-    </row>
-    <row r="30" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U30" s="12"/>
-      <c r="V30" s="12"/>
-      <c r="W30" s="12"/>
-      <c r="X30" s="12"/>
-      <c r="Y30" s="12"/>
-      <c r="Z30" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="U6:Z12"/>
-    <mergeCell ref="U16:Z19"/>
-    <mergeCell ref="U23:Z25"/>
-    <mergeCell ref="U27:Z30"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2742,7 +2149,7 @@
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.15" shapeId="4098" r:id="rId3">
+        <oleObject progId="Visio.Drawing.15" shapeId="6145" r:id="rId3">
           <objectPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -2754,128 +2161,17 @@
               <to>
                 <xdr:col>18</xdr:col>
                 <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>40</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:row>41</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Visio.Drawing.15" shapeId="4098" r:id="rId3"/>
+        <oleObject progId="Visio.Drawing.15" shapeId="6145" r:id="rId3"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="L5:Z44"/>
-  <sheetViews>
-    <sheetView topLeftCell="D8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="5" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U5" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-    </row>
-    <row r="6" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-    </row>
-    <row r="9" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="12:19" x14ac:dyDescent="0.2">
-      <c r="L43" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>64</v>
-      </c>
-      <c r="S43" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="12:19" x14ac:dyDescent="0.2">
-      <c r="L44" t="s">
-        <v>61</v>
-      </c>
-      <c r="M44" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>59</v>
-      </c>
-      <c r="S44" t="s">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="U5:Z6"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.15" shapeId="5122" r:id="rId3">
-          <objectPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>41</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Visio.Drawing.15" shapeId="5122" r:id="rId3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </oleObjects>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>